--- a/02.실전편/04.RISS(논문 크롤링)/Riss.xlsx
+++ b/02.실전편/04.RISS(논문 크롤링)/Riss.xlsx
@@ -666,7 +666,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['*']</t>
+          <t>['567']</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['*']</t>
+          <t>['학술저널']</t>
         </is>
       </c>
     </row>
